--- a/bots/crawl_ch/output/electronics_2022-08-18.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-18.xlsx
@@ -513,17 +513,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4090846</t>
+          <t>4090845</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AAA/LR03 10 Stück</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/prix-garantie-batterien-aaalr03-10-stueck/p/4090846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -544,12 +544,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.47/1ST</t>
+          <t>0.48/1ST</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -569,34 +569,34 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AAA/LR03 10 Stück 4.70 Schweizer Franken</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4090845</t>
+          <t>4090846</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
+          <t>Prix Garantie Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/prix-garantie-batterien-aaalr03-10-stueck/p/4090846</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.48/1ST</t>
+          <t>0.47/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
+          <t>Prix Garantie Batterien AAA/LR03 10 Stück 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1232,50 +1232,48 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4905482</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1285,7 +1283,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1295,58 +1293,60 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>4905482</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
+          <t>Alkaline Batterie LR14/C 2 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
+          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1522,29 +1522,29 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1583,39 +1583,39 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6753556</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1624,17 +1624,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1654,39 +1654,39 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6753556</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1725,17 +1725,17 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2309,48 +2309,50 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2360,7 +2362,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2370,60 +2372,58 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>4</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2940,103 +2940,87 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3045,43 +3029,59 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19.95/1ST</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6753555</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3089,23 +3089,25 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3115,7 +3117,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3125,60 +3127,58 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>6753555</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3198,17 +3198,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3761,41 +3761,39 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3804,139 +3802,141 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -3987,270 +3987,270 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -4274,17 +4274,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:44</t>
+          <t>2022-08-18 20:59:05</t>
         </is>
       </c>
     </row>
